--- a/biology/Botanique/Festival_international_des_jardins_de_Chaumont-sur-Loire/Festival_international_des_jardins_de_Chaumont-sur-Loire.xlsx
+++ b/biology/Botanique/Festival_international_des_jardins_de_Chaumont-sur-Loire/Festival_international_des_jardins_de_Chaumont-sur-Loire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Festival International des Jardins de Chaumont-sur-Loire réunit chaque année depuis 1992, dans une partie du Domaine de Chaumont-sur-Loire, en Loir-et-Cher, une sélection de créations paysagères en lien avec un thème particulier. Devenu aujourd'hui un rendez-vous incontournable de l'art des jardins, le Festival s'adresse aussi bien aux spécialistes qu'à un large public.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Festival International des Jardins a été lancé en 1992[1],[2]. Il se présente comme étant un panorama de l’état de la création paysagère dans le monde[1]. Les jardins éphémères, présentés à chaque édition (une vingtaine), sont les lauréats du concours international organisé en amont par le Festival. En vingt saisons, ce sont près de cinq cents jardins qui ont été créés. Le festival inclut également des expositions de créations artistiques[3]. À côté des jardins, les visiteurs peuvent également découvrir des jardins permanents, tels que le vallon des Brumes[4], le jardin de méditation, le sentier des Fleurs Sauvages et les jardins d'enfants.
-Depuis 2009, les jardins de Chaumont-sur-Loire peuvent, pendant une partie de l'été, être visités le soir à la lueur de diodes électroluminescentes, révélant par leurs couleurs, leurs lumières et leurs reflets, des aspects inédits, des ambiances insolites et mystérieuses, mais aussi par des bandes sonores. Ces visites nocturnes sont appelées les Jardins de Lumière[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Festival International des Jardins a été lancé en 1992,. Il se présente comme étant un panorama de l’état de la création paysagère dans le monde. Les jardins éphémères, présentés à chaque édition (une vingtaine), sont les lauréats du concours international organisé en amont par le Festival. En vingt saisons, ce sont près de cinq cents jardins qui ont été créés. Le festival inclut également des expositions de créations artistiques. À côté des jardins, les visiteurs peuvent également découvrir des jardins permanents, tels que le vallon des Brumes, le jardin de méditation, le sentier des Fleurs Sauvages et les jardins d'enfants.
+Depuis 2009, les jardins de Chaumont-sur-Loire peuvent, pendant une partie de l'été, être visités le soir à la lueur de diodes électroluminescentes, révélant par leurs couleurs, leurs lumières et leurs reflets, des aspects inédits, des ambiances insolites et mystérieuses, mais aussi par des bandes sonores. Ces visites nocturnes sont appelées les Jardins de Lumière.
 Le Festival est ouvert au public tous les jours de fin avril à mi-octobre.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Fréquentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fréquentation du Festival est très forte augmentation depuis 20 ans, le nombre de visiteurs s'élevant à 533.944 en 2019[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fréquentation du Festival est très forte augmentation depuis 20 ans, le nombre de visiteurs s'élevant à 533.944 en 2019.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Thème par année</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1992 : Le plaisir
 1993 : L'imagination dans la crise !
@@ -586,7 +604,7 @@
 1997 : Que d'eau ! Que d'eau !
 1998 : Ricochets
 1999 : Rien que des potagers !
-2000 : En l'honneur de l'an 2000, vous êtes libres ![1]
+2000 : En l'honneur de l'an 2000, vous êtes libres !
 2001 : Mosaïculture et compagnie
 2002 : L'érotisme au jardin
 2003 : Les Mauvaises herbes
@@ -597,8 +615,8 @@
 2008 : Des jardins en partage
 2009 : Jardins de couleur
 2010 : Jardins corps et âme
-2011 : Jardins d'avenir ou l'art de la biodiversité heureuse[9]
-2012 : Jardins des délices, jardins des délires[2]
+2011 : Jardins d'avenir ou l'art de la biodiversité heureuse
+2012 : Jardins des délices, jardins des délires
 2013 : Jardins des sensations
 2014 : Jardins des péchés capitaux
 2015 : Jardins extraordinaires, jardins de collection
@@ -607,7 +625,7 @@
 2018 : Jardins de la pensée
 2019 : Jardins de paradis
 2020 : Les jardins de la Terre, retour à la Terre Mère
-2021 : Biomimétisme au jardin[10]
+2021 : Biomimétisme au jardin
 2022 : Jardin idéal
 2023 : Jardin résilient
 2024 : Jardin source de vie</t>
@@ -638,11 +656,13 @@
           <t>Les Jardins de Lumière</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">De début juillet à fin août, au cœur de l’été et à la tombée de la nuit, le Domaine de Chaumont-sur-Loire propose une promenade nocturne dans les allées du Festival International des Jardins, au milieu des créations des architectes paysagistes .
 Les "Jardins de Lumière" entraînent librement le visiteur dans une déambulation poétique au sein du Festival entièrement revisitée par des "ingénieurs lumière" et réalisée grâce à des diodes électroluminescentes à basse consommation d’énergie.
-Les jardins se transforment alors pour prendre des couleurs étonnantes et émerveiller les regards, en créant de nouvelles ambiances, insolites, féeriques ou mystérieuses, où les ombres géantes et mouvantes, ainsi que de subtils reflets emportent l’imaginaire du spectateur vers de nouveaux espaces en des paysages magiques[11].
+Les jardins se transforment alors pour prendre des couleurs étonnantes et émerveiller les regards, en créant de nouvelles ambiances, insolites, féeriques ou mystérieuses, où les ombres géantes et mouvantes, ainsi que de subtils reflets emportent l’imaginaire du spectateur vers de nouveaux espaces en des paysages magiques.
 </t>
         </is>
       </c>
